--- a/code/matlab_testerino/stored probability.xlsx
+++ b/code/matlab_testerino/stored probability.xlsx
@@ -1645,7 +1645,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/matlab_testerino/stored probability.xlsx
+++ b/code/matlab_testerino/stored probability.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>P(x4)</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>P(x1)</t>
+  </si>
+  <si>
+    <t>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</t>
+  </si>
+  <si>
+    <t>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</t>
+  </si>
+  <si>
+    <t>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</t>
+  </si>
+  <si>
+    <t>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</t>
+  </si>
+  <si>
+    <t>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777, -4,8164799306237</t>
   </si>
 </sst>
 </file>
@@ -196,52 +211,52 @@
                   <c:v>0.86532344729557997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8586387746319066E-3</c:v>
+                  <c:v>0.12573822039411045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1370079688887124E-5</c:v>
+                  <c:v>8.5644095626664554E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4816419495457534E-7</c:v>
+                  <c:v>3.6297194917456215E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8864558573069408E-9</c:v>
+                  <c:v>1.0713349660298632E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3459235838307226E-11</c:v>
+                  <c:v>2.3350994214172611E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8550264636202313E-13</c:v>
+                  <c:v>3.8879051920670867E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4092066773543983E-15</c:v>
+                  <c:v>5.0441324388934189E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0043249340251848E-17</c:v>
+                  <c:v>5.1535661900904224E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6366220389734271E-19</c:v>
+                  <c:v>4.1602956125856085E-15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3026839909950395E-21</c:v>
+                  <c:v>2.6447893399888262E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9994102844556362E-23</c:v>
+                  <c:v>1.3101424122502328E-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7239851221090535E-25</c:v>
+                  <c:v>4.9576529222384763E-22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4738512713402099E-27</c:v>
+                  <c:v>1.3853567119505133E-24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2466863210960532E-29</c:v>
+                  <c:v>2.6960235853152715E-27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0403811190579694E-31</c:v>
+                  <c:v>3.2646097904927686E-30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8530201888518392E-33</c:v>
+                  <c:v>1.8530201888518403E-33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -278,55 +293,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.74779714819265453</c:v>
+                  <c:v>0.74779714819265464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3707076036117902E-2</c:v>
+                  <c:v>0.21931321657788644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5124986624248697E-4</c:v>
+                  <c:v>3.0149983949098437E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.60539469690913E-6</c:v>
+                  <c:v>2.579021030269114E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4416603405666323E-8</c:v>
+                  <c:v>1.536382181983126E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5473511825885886E-9</c:v>
+                  <c:v>6.7588299655469501E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8362852634006712E-11</c:v>
+                  <c:v>2.2712972389312567E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1988935581682358E-13</c:v>
+                  <c:v>5.9475342305444665E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5295401269886203E-15</c:v>
+                  <c:v>1.2264518143434389E-10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7467588827474048E-16</c:v>
+                  <c:v>1.9982921618630326E-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2017983594147948E-18</c:v>
+                  <c:v>2.5640001262193757E-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8688768298845513E-20</c:v>
+                  <c:v>2.5635253992935618E-16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0757615370460481E-21</c:v>
+                  <c:v>1.957885997423813E-18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9718643245243246E-23</c:v>
+                  <c:v>1.1042440217336152E-20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6144152588022237E-25</c:v>
+                  <c:v>4.3372983105626125E-23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6252010853808579E-27</c:v>
+                  <c:v>1.0600321736609357E-25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2143953109659414E-28</c:v>
+                  <c:v>1.2143953109659436E-28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,55 +378,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.52914439805241986</c:v>
+                  <c:v>0.52914439805242031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1474122293490504E-2</c:v>
+                  <c:v>0.34358595669584835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7147842814373549E-4</c:v>
+                  <c:v>0.10457741137724834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5366970549017361E-5</c:v>
+                  <c:v>1.9805503507449741E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4352880867967503E-6</c:v>
+                  <c:v>2.6122243179700863E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8247903626507045E-8</c:v>
+                  <c:v>2.5442684304058301E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3638587319810352E-9</c:v>
+                  <c:v>1.89297807257042E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5931831995068022E-11</c:v>
+                  <c:v>1.0974601580235801E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8931752838789307E-12</c:v>
+                  <c:v>5.010516590352182E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5799566708769858E-13</c:v>
+                  <c:v>1.8074704314832709E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4118949182312635E-15</c:v>
+                  <c:v>5.134645450519611E-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.602121767024134E-16</c:v>
+                  <c:v>1.1366067878361375E-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0560119554000128E-17</c:v>
+                  <c:v>1.9219417588280237E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2855844183767437E-19</c:v>
+                  <c:v>2.3999272742909657E-16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7392069960113734E-20</c:v>
+                  <c:v>2.0870483952136484E-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0581761544686343E-22</c:v>
+                  <c:v>1.1293081847149828E-20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8644003124274373E-23</c:v>
+                  <c:v>2.8644003124274432E-23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,55 +463,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2633936117445887</c:v>
+                  <c:v>0.26339361174458853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2903792325616408E-2</c:v>
+                  <c:v>0.36646067720986231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9916341152709919E-3</c:v>
+                  <c:v>0.23899609383251891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7318557524095585E-4</c:v>
+                  <c:v>9.6983922134935174E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5059615238343984E-5</c:v>
+                  <c:v>2.7408499733786038E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3095317598559986E-6</c:v>
+                  <c:v>5.720034727050999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1387232694399987E-7</c:v>
+                  <c:v>9.1188959416755005E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9019414733912932E-9</c:v>
+                  <c:v>1.132782104555963E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6103838899054726E-10</c:v>
+                  <c:v>1.108156406630833E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4872903390482355E-11</c:v>
+                  <c:v>8.5654601478711704E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5106872513462918E-12</c:v>
+                  <c:v>5.213758350878099E-8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6614671750837331E-13</c:v>
+                  <c:v>2.4729288620765682E-9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.923014934855419E-14</c:v>
+                  <c:v>8.9598871814368716E-11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2808825520481904E-15</c:v>
+                  <c:v>2.3972942291469939E-12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7225065669984262E-16</c:v>
+                  <c:v>4.4670078803980944E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.236962232172545E-17</c:v>
+                  <c:v>5.179139571476074E-16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8147497671065605E-18</c:v>
+                  <c:v>2.8147497671065525E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,7 +557,7 @@
                   <c:v>1.8310546875000013E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5449218749999896E-3</c:v>
+                  <c:v>8.5449218749999931E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.777099609375001E-2</c:v>
@@ -572,7 +587,7 @@
                   <c:v>2.777099609375001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5449218749999931E-3</c:v>
+                  <c:v>8.5449218749999896E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.8310546875000013E-3</c:v>
@@ -1642,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,72 +1766,72 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <f>((1-$B$1)^(16-B$7))*($B$1^B$7)</f>
+        <f>_xlfn.BINOM.DIST(B$7,16,$B$1,FALSE)</f>
         <v>0.86532344729557997</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:R8" si="0">((1-$B$1)^(16-C$7))*($B$1^C$7)</f>
-        <v>7.8586387746319066E-3</v>
+        <f t="shared" ref="C8:R8" si="0">_xlfn.BINOM.DIST(C$7,16,$B$1,FALSE)</f>
+        <v>0.12573822039411045</v>
       </c>
       <c r="D8">
-        <f>((1-$B$1)^(16-D$7))*($B$1^D$7)</f>
-        <v>7.1370079688887124E-5</v>
+        <f t="shared" si="0"/>
+        <v>8.5644095626664554E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6.4816419495457534E-7</v>
+        <v>3.6297194917456215E-4</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>5.8864558573069408E-9</v>
+        <v>1.0713349660298632E-5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>5.3459235838307226E-11</v>
+        <v>2.3350994214172611E-7</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>4.8550264636202313E-13</v>
+        <v>3.8879051920670867E-9</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>4.4092066773543983E-15</v>
+        <v>5.0441324388934189E-11</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>4.0043249340251848E-17</v>
+        <v>5.1535661900904224E-13</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3.6366220389734271E-19</v>
+        <v>4.1602956125856085E-15</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>3.3026839909950395E-21</v>
+        <v>2.6447893399888262E-17</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>2.9994102844556362E-23</v>
+        <v>1.3101424122502328E-19</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>2.7239851221090535E-25</v>
+        <v>4.9576529222384763E-22</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>2.4738512713402099E-27</v>
+        <v>1.3853567119505133E-24</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>2.2466863210960532E-29</v>
+        <v>2.6960235853152715E-27</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>2.0403811190579694E-31</v>
+        <v>3.2646097904927686E-30</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>1.8530201888518392E-33</v>
+        <v>1.8530201888518403E-33</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1824,72 +1839,72 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f>((1-$B$2)^(16-B$7))*($B$2^B$7)</f>
-        <v>0.74779714819265453</v>
+        <f>_xlfn.BINOM.DIST(B$7,16,$B$2,FALSE)</f>
+        <v>0.74779714819265464</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:R9" si="1">((1-$B$2)^(16-C$7))*($B$2^C$7)</f>
-        <v>1.3707076036117902E-2</v>
+        <f t="shared" ref="C9:R9" si="1">_xlfn.BINOM.DIST(C$7,16,$B$2,FALSE)</f>
+        <v>0.21931321657788644</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.5124986624248697E-4</v>
+        <v>3.0149983949098437E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>4.60539469690913E-6</v>
+        <v>2.579021030269114E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>8.4416603405666323E-8</v>
+        <v>1.536382181983126E-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.5473511825885886E-9</v>
+        <v>6.7588299655469501E-6</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2.8362852634006712E-11</v>
+        <v>2.2712972389312567E-7</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>5.1988935581682358E-13</v>
+        <v>5.9475342305444665E-9</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>9.5295401269886203E-15</v>
+        <v>1.2264518143434389E-10</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1.7467588827474048E-16</v>
+        <v>1.9982921618630326E-12</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>3.2017983594147948E-18</v>
+        <v>2.5640001262193757E-14</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>5.8688768298845513E-20</v>
+        <v>2.5635253992935618E-16</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>1.0757615370460481E-21</v>
+        <v>1.957885997423813E-18</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>1.9718643245243246E-23</v>
+        <v>1.1042440217336152E-20</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>3.6144152588022237E-25</v>
+        <v>4.3372983105626125E-23</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>6.6252010853808579E-27</v>
+        <v>1.0600321736609357E-25</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>1.2143953109659414E-28</v>
+        <v>1.2143953109659436E-28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1897,72 +1912,72 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <f>((1-$B$3)^(16-B$7))*($B$3^B$7)</f>
-        <v>0.52914439805241986</v>
+        <f>_xlfn.BINOM.DIST(B$7,16,$B$3,FALSE)</f>
+        <v>0.52914439805242031</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:R10" si="2">((1-$B$3)^(16-C$7))*($B$3^C$7)</f>
-        <v>2.1474122293490504E-2</v>
+        <f t="shared" ref="C10:R10" si="2">_xlfn.BINOM.DIST(C$7,16,$B$3,FALSE)</f>
+        <v>0.34358595669584835</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>8.7147842814373549E-4</v>
+        <v>0.10457741137724834</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>3.5366970549017361E-5</v>
+        <v>1.9805503507449741E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>1.4352880867967503E-6</v>
+        <v>2.6122243179700863E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>5.8247903626507045E-8</v>
+        <v>2.5442684304058301E-4</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>2.3638587319810352E-9</v>
+        <v>1.89297807257042E-5</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>9.5931831995068022E-11</v>
+        <v>1.0974601580235801E-6</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>3.8931752838789307E-12</v>
+        <v>5.010516590352182E-8</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>1.5799566708769858E-13</v>
+        <v>1.8074704314832709E-9</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>6.4118949182312635E-15</v>
+        <v>5.134645450519611E-11</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>2.602121767024134E-16</v>
+        <v>1.1366067878361375E-12</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>1.0560119554000128E-17</v>
+        <v>1.9219417588280237E-14</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>4.2855844183767437E-19</v>
+        <v>2.3999272742909657E-16</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>1.7392069960113734E-20</v>
+        <v>2.0870483952136484E-18</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>7.0581761544686343E-22</v>
+        <v>1.1293081847149828E-20</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>2.8644003124274373E-23</v>
+        <v>2.8644003124274432E-23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1970,72 +1985,72 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <f>((1-$B$4)^(16-B$7))*($B$4^B$7)</f>
-        <v>0.2633936117445887</v>
+        <f>_xlfn.BINOM.DIST(B$7,16,$B$4,FALSE)</f>
+        <v>0.26339361174458853</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:R11" si="3">((1-$B$4)^(16-C$7))*($B$4^C$7)</f>
-        <v>2.2903792325616408E-2</v>
+        <f t="shared" ref="C11:R11" si="3">_xlfn.BINOM.DIST(C$7,16,$B$4,FALSE)</f>
+        <v>0.36646067720986231</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>1.9916341152709919E-3</v>
+        <v>0.23899609383251891</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>1.7318557524095585E-4</v>
+        <v>9.6983922134935174E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1.5059615238343984E-5</v>
+        <v>2.7408499733786038E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>1.3095317598559986E-6</v>
+        <v>5.720034727050999E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>1.1387232694399987E-7</v>
+        <v>9.1188959416755005E-4</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>9.9019414733912932E-9</v>
+        <v>1.132782104555963E-4</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>8.6103838899054726E-10</v>
+        <v>1.108156406630833E-5</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>7.4872903390482355E-11</v>
+        <v>8.5654601478711704E-7</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>6.5106872513462918E-12</v>
+        <v>5.213758350878099E-8</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>5.6614671750837331E-13</v>
+        <v>2.4729288620765682E-9</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>4.923014934855419E-14</v>
+        <v>8.9598871814368716E-11</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>4.2808825520481904E-15</v>
+        <v>2.3972942291469939E-12</v>
       </c>
       <c r="P11">
         <f t="shared" si="3"/>
-        <v>3.7225065669984262E-16</v>
+        <v>4.4670078803980944E-14</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>3.236962232172545E-17</v>
+        <v>5.179139571476074E-16</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>2.8147497671065605E-18</v>
+        <v>2.8147497671065525E-18</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2043,11 +2058,11 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <f>_xlfn.BINOM.DIST(16 -B7,16,$E$1,FALSE)</f>
+        <f>_xlfn.BINOM.DIST(B$7,16,$E$1,FALSE)</f>
         <v>1.5258789062500007E-5</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:R12" si="4">_xlfn.BINOM.DIST(16 -C7,16,$E$1,FALSE)</f>
+        <f t="shared" ref="C12:R12" si="4">_xlfn.BINOM.DIST(C$7,16,$E$1,FALSE)</f>
         <v>2.4414062500000027E-4</v>
       </c>
       <c r="D12">
@@ -2056,7 +2071,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>8.5449218749999896E-3</v>
+        <v>8.5449218749999931E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
@@ -2096,7 +2111,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>8.5449218749999931E-3</v>
+        <v>8.5449218749999896E-3</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
@@ -2121,63 +2136,63 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:Q15" si="5">LOG(C8)</f>
-        <v>-2.1046526732815454</v>
+        <v>-0.90053269062562058</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>-4.1464838183274955</v>
+        <v>-2.0673025722798708</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
-        <v>-6.188314963373446</v>
+        <v>-3.4401269363672458</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>-8.2301461084193974</v>
+        <v>-4.9700747204343214</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>-10.271977253465348</v>
+        <v>-6.6316946237686665</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>-12.313808398511298</v>
+        <v>-8.4102843340400355</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>-14.355639543557247</v>
+        <v>-10.297213519100243</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>-16.3974706886032</v>
+        <v>-12.28789214169881</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>-18.43930183364915</v>
+        <v>-14.380875809192142</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>-20.481132978695101</v>
+        <v>-16.577608914223838</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>-22.522964123741051</v>
+        <v>-18.882681494044366</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>-24.564795268787002</v>
+        <v>-21.304723880801927</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>-26.606626413832952</v>
+        <v>-23.858438386826752</v>
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>-28.648457558878903</v>
+        <v>-26.569276312831274</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>-30.690288703924853</v>
+        <v>-29.486168721268925</v>
       </c>
       <c r="R15">
         <f t="shared" ref="R15" si="6">LOG(R8)</f>
@@ -2190,67 +2205,67 @@
       </c>
       <c r="B16">
         <f t="shared" ref="B16:Q16" si="7">LOG(B9)</f>
-        <v>-0.12621619540880535</v>
+        <v>-0.1262161954088053</v>
       </c>
       <c r="C16">
         <f t="shared" si="7"/>
-        <v>-1.8630551780924489</v>
+        <v>-0.65893519543652423</v>
       </c>
       <c r="D16">
         <f t="shared" si="7"/>
-        <v>-3.5998941607760928</v>
+        <v>-1.5207129147284679</v>
       </c>
       <c r="E16">
         <f t="shared" si="7"/>
-        <v>-5.3367331434597363</v>
+        <v>-2.5885451164535356</v>
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
-        <v>-7.0735721261433797</v>
+        <v>-3.8135007381583055</v>
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>-8.8104111088270241</v>
+        <v>-5.1701284791303426</v>
       </c>
       <c r="H16">
         <f t="shared" si="7"/>
-        <v>-10.547250091510668</v>
+        <v>-6.6437260270394054</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
-        <v>-12.284089074194311</v>
+        <v>-8.2256630497373049</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
-        <v>-14.020928056877954</v>
+        <v>-9.9113495099735669</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>-15.757767039561598</v>
+        <v>-11.699341015104592</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>-17.494606022245243</v>
+        <v>-13.591081957773978</v>
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>-19.231445004928887</v>
+        <v>-15.591162375232207</v>
       </c>
       <c r="N16">
         <f t="shared" si="7"/>
-        <v>-20.96828398761253</v>
+        <v>-17.708212599627451</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
-        <v>-22.705122970296173</v>
+        <v>-19.956934943289976</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
-        <v>-24.441961952979817</v>
+        <v>-22.362780706932195</v>
       </c>
       <c r="Q16">
         <f t="shared" si="7"/>
-        <v>-26.17880093566346</v>
+        <v>-24.974680953007535</v>
       </c>
       <c r="R16">
         <f t="shared" ref="R16" si="8">LOG(R9)</f>
@@ -2263,71 +2278,71 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:Q17" si="9">LOG(B10)</f>
-        <v>-0.2764257973032746</v>
+        <v>-0.27642579730327427</v>
       </c>
       <c r="C17">
         <f t="shared" si="9"/>
-        <v>-1.6680845779453208</v>
+        <v>-0.46396459528939565</v>
       </c>
       <c r="D17">
         <f t="shared" si="9"/>
-        <v>-3.059743358587367</v>
+        <v>-0.98056211253974168</v>
       </c>
       <c r="E17">
         <f t="shared" si="9"/>
-        <v>-4.4514021392294127</v>
+        <v>-1.7032141122232123</v>
       </c>
       <c r="F17">
         <f t="shared" si="9"/>
-        <v>-5.8430609198714594</v>
+        <v>-2.5829895318863842</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>-7.2347197005135051</v>
+        <v>-3.5944370708168241</v>
       </c>
       <c r="H17">
         <f t="shared" si="9"/>
-        <v>-8.6263784811555517</v>
+        <v>-4.7228544166842878</v>
       </c>
       <c r="I17">
         <f t="shared" si="9"/>
-        <v>-10.018037261797598</v>
+        <v>-5.9596112373405914</v>
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
-        <v>-11.409696042439643</v>
+        <v>-7.3001174955352575</v>
       </c>
       <c r="K17">
         <f t="shared" si="9"/>
-        <v>-12.80135482308169</v>
+        <v>-8.7429287986246838</v>
       </c>
       <c r="L17">
         <f t="shared" si="9"/>
-        <v>-14.193013603723736</v>
+        <v>-10.289489539252472</v>
       </c>
       <c r="M17">
         <f t="shared" si="9"/>
-        <v>-15.584672384365781</v>
+        <v>-11.944389754669103</v>
       </c>
       <c r="N17">
         <f t="shared" si="9"/>
-        <v>-16.976331165007828</v>
+        <v>-13.716259777022753</v>
       </c>
       <c r="O17">
         <f t="shared" si="9"/>
-        <v>-18.367989945649875</v>
+        <v>-15.619801918643676</v>
       </c>
       <c r="P17">
         <f t="shared" si="9"/>
-        <v>-19.759648726291921</v>
+        <v>-17.680467480244296</v>
       </c>
       <c r="Q17">
         <f t="shared" si="9"/>
-        <v>-21.151307506933968</v>
+        <v>-19.947187524278043</v>
       </c>
       <c r="R17">
         <f t="shared" ref="R17" si="10">LOG(R10)</f>
-        <v>-22.542966287576014</v>
+        <v>-22.542966287576011</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2336,67 +2351,67 @@
       </c>
       <c r="B18">
         <f t="shared" ref="B18:Q18" si="11">LOG(B11)</f>
-        <v>-0.57939476247111543</v>
+        <v>-0.57939476247111577</v>
       </c>
       <c r="C18">
         <f t="shared" si="11"/>
-        <v>-1.6400926028247271</v>
+        <v>-0.43597262016880262</v>
       </c>
       <c r="D18">
         <f t="shared" si="11"/>
-        <v>-2.7007904431783389</v>
+        <v>-0.62160919713071427</v>
       </c>
       <c r="E18">
         <f t="shared" si="11"/>
-        <v>-3.7614882835319503</v>
+        <v>-1.0133002565257505</v>
       </c>
       <c r="F18">
         <f t="shared" si="11"/>
-        <v>-4.8221861238855626</v>
+        <v>-1.5621147359004877</v>
       </c>
       <c r="G18">
         <f t="shared" si="11"/>
-        <v>-5.8828839642391735</v>
+        <v>-2.2426013345424933</v>
       </c>
       <c r="H18">
         <f t="shared" si="11"/>
-        <v>-6.9435818045927853</v>
+        <v>-3.0400577401215236</v>
       </c>
       <c r="I18">
         <f t="shared" si="11"/>
-        <v>-8.0042796449463971</v>
+        <v>-3.9458536204893924</v>
       </c>
       <c r="J18">
         <f t="shared" si="11"/>
-        <v>-9.0649774853000089</v>
+        <v>-4.9553989383956232</v>
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>-10.125675325653621</v>
+        <v>-6.0672493011966155</v>
       </c>
       <c r="L18">
         <f t="shared" si="11"/>
-        <v>-11.186373166007233</v>
+        <v>-7.2828491015359713</v>
       </c>
       <c r="M18">
         <f t="shared" si="11"/>
-        <v>-12.247071006360844</v>
+        <v>-8.6067883766641646</v>
       </c>
       <c r="N18">
         <f t="shared" si="11"/>
-        <v>-13.307768846714456</v>
+        <v>-10.047697458729381</v>
       </c>
       <c r="O18">
         <f t="shared" si="11"/>
-        <v>-14.368466687068068</v>
+        <v>-11.620278660061865</v>
       </c>
       <c r="P18">
         <f t="shared" si="11"/>
-        <v>-15.42916452742168</v>
+        <v>-13.349983281374056</v>
       </c>
       <c r="Q18">
         <f t="shared" si="11"/>
-        <v>-16.489862367775292</v>
+        <v>-15.285742385119367</v>
       </c>
       <c r="R18">
         <f t="shared" ref="R18" si="12">LOG(R11)</f>
@@ -2421,7 +2436,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="13"/>
-        <v>-2.0682919036174994</v>
+        <v>-2.0682919036174989</v>
       </c>
       <c r="F19">
         <f t="shared" si="13"/>
@@ -2461,7 +2476,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="13"/>
-        <v>-2.0682919036174989</v>
+        <v>-2.0682919036174994</v>
       </c>
       <c r="P19">
         <f t="shared" si="13"/>
@@ -2483,67 +2498,67 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:Q21" si="15">SUM(C15:C18) - 4*C19</f>
-        <v>7.173554759727053</v>
+        <v>11.990034690350752</v>
       </c>
       <c r="D21">
         <f t="shared" si="15"/>
-        <v>-2.5577170425649989</v>
+        <v>5.7590079416255016</v>
       </c>
       <c r="E21">
         <f t="shared" si="15"/>
-        <v>-11.464770915124546</v>
+        <v>-0.47201880709974731</v>
       </c>
       <c r="F21">
         <f t="shared" si="15"/>
-        <v>-19.7433311077653</v>
+        <v>-6.7030455558250006</v>
       </c>
       <c r="G21">
         <f t="shared" si="15"/>
-        <v>-27.495202823336975</v>
+        <v>-12.934072304550252</v>
       </c>
       <c r="H21">
         <f t="shared" si="15"/>
-        <v>-34.779195311160557</v>
+        <v>-19.165099053275505</v>
       </c>
       <c r="I21">
         <f t="shared" si="15"/>
-        <v>-41.629829899828778</v>
+        <v>-25.396125802000753</v>
       </c>
       <c r="J21">
         <f t="shared" si="15"/>
-        <v>-48.065466738343559</v>
+        <v>-31.627152550726009</v>
       </c>
       <c r="K21">
         <f t="shared" si="15"/>
-        <v>-54.091883397279275</v>
+        <v>-37.858179299451258</v>
       </c>
       <c r="L21">
         <f t="shared" si="15"/>
-        <v>-59.703302306061559</v>
+        <v>-44.089206048176514</v>
       </c>
       <c r="M21">
         <f t="shared" si="15"/>
-        <v>-64.881363315688489</v>
+        <v>-50.320232796901763</v>
       </c>
       <c r="N21">
         <f t="shared" si="15"/>
-        <v>-69.59154509756732</v>
+        <v>-56.551259545627012</v>
       </c>
       <c r="O21">
         <f t="shared" si="15"/>
-        <v>-73.775038402377078</v>
+        <v>-62.782286294352275</v>
       </c>
       <c r="P21">
         <f t="shared" si="15"/>
-        <v>-77.330038027268017</v>
+        <v>-69.013313043077517</v>
       </c>
       <c r="Q21">
         <f t="shared" si="15"/>
-        <v>-80.060819722426459</v>
+        <v>-75.244339791802759</v>
       </c>
       <c r="R21">
         <f t="shared" ref="R21" si="16">SUM(R15:R18) - 4*R19</f>
-        <v>-81.475366540528029</v>
+        <v>-81.475366540528015</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2553,277 +2568,277 @@
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE(B24,", ",C15)</f>
-        <v>-0,0628215282355947, -2,10465267328155</v>
+        <v>-0,0628215282355947, -0,900532690625621</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ref="D24:R24" si="17">CONCATENATE(C24,", ",D15)</f>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411, -24,564795268787</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411, -24,564795268787, -26,606626413833</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411, -24,564795268787, -26,606626413833, -28,6484575588789</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411, -24,564795268787, -26,606626413833, -28,6484575588789, -30,6902887039249</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -2,10465267328155, -4,1464838183275, -6,18831496337345, -8,2301461084194, -10,2719772534653, -12,3138083985113, -14,3556395435572, -16,3974706886032, -18,4393018336492, -20,4811329786951, -22,5229641237411, -24,564795268787, -26,606626413833, -28,6484575588789, -30,6902887039249, -32,7321198489708</v>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:B28" si="18">B16</f>
-        <v>-0.12621619540880535</v>
+        <v>-0.1262161954088053</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ref="C25:R28" si="19">CONCATENATE(B25,", ",C16)</f>
-        <v>-0,126216195408805, -1,86305517809245</v>
+        <v>-0,126216195408805, -0,658935195436524</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289, -20,9682839876125</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289, -20,9682839876125, -22,7051229702962</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289, -20,9682839876125, -22,7051229702962, -24,4419619529798</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289, -20,9682839876125, -22,7051229702962, -24,4419619529798, -26,1788009356635</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="19"/>
-        <v>-0,126216195408805, -1,86305517809245, -3,59989416077609, -5,33673314345974, -7,07357212614338, -8,81041110882702, -10,5472500915107, -12,2840890741943, -14,020928056878, -15,7577670395616, -17,4946060222452, -19,2314450049289, -20,9682839876125, -22,7051229702962, -24,4419619529798, -26,1788009356635, -27,9156399183471</v>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="18"/>
-        <v>-0.2764257973032746</v>
+        <v>-0.27642579730327427</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532</v>
+        <v>-0,276425797303274, -0,463964595289396</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658, -16,9763311650078</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658, -16,9763311650078, -18,3679899456499</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658, -16,9763311650078, -18,3679899456499, -19,7596487262919</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658, -16,9763311650078, -18,3679899456499, -19,7596487262919, -21,151307506934</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="19"/>
-        <v>-0,276425797303275, -1,66808457794532, -3,05974335858737, -4,45140213922941, -5,84306091987146, -7,23471970051351, -8,62637848115555, -10,0180372617976, -11,4096960424396, -12,8013548230817, -14,1930136037237, -15,5846723843658, -16,9763311650078, -18,3679899456499, -19,7596487262919, -21,151307506934, -22,542966287576</v>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="18"/>
-        <v>-0.57939476247111543</v>
+        <v>-0.57939476247111577</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473</v>
+        <v>-0,579394762471116, -0,435972620168803</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608, -13,3077688467145</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608, -13,3077688467145, -14,3684666870681</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608, -13,3077688467145, -14,3684666870681, -15,4291645274217</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608, -13,3077688467145, -14,3684666870681, -15,4291645274217, -16,4898623677753</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="19"/>
-        <v>-0,579394762471115, -1,64009260282473, -2,70079044317834, -3,76148828353195, -4,82218612388556, -5,88288396423917, -6,94358180459279, -8,0042796449464, -9,06497748530001, -10,1256753256536, -11,1863731660072, -12,2470710063608, -13,3077688467145, -14,3684666870681, -15,4291645274217, -16,4898623677753, -17,5505602081289</v>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2894,6 +2909,31 @@
       <c r="R28" t="str">
         <f t="shared" si="19"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777, -4,8164799306237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/code/matlab_testerino/stored probability.xlsx
+++ b/code/matlab_testerino/stored probability.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpanta\Documents\GitHub\tiic-2015\code\matlab_testerino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tiic-2015\code\matlab_testerino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>P(x4)</t>
   </si>
@@ -63,21 +63,6 @@
   </si>
   <si>
     <t>P(x1)</t>
-  </si>
-  <si>
-    <t>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</t>
-  </si>
-  <si>
-    <t>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</t>
-  </si>
-  <si>
-    <t>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</t>
-  </si>
-  <si>
-    <t>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</t>
-  </si>
-  <si>
-    <t>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777, -4,8164799306237</t>
   </si>
 </sst>
 </file>
@@ -147,7 +132,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -736,7 +720,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1371,7 +1354,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1470,6 +1453,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1505,6 +1505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1657,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,818 +2143,1144 @@
         <v>1.5258789062500007E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <f>LOG(B8)</f>
-        <v>-6.282152823559474E-2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:Q15" si="5">LOG(C8)</f>
-        <v>-0.90053269062562058</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>-2.0673025722798708</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>-3.4401269363672458</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>-4.9700747204343214</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>-6.6316946237686665</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>-8.4102843340400355</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>-10.297213519100243</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="5"/>
-        <v>-12.28789214169881</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>-14.380875809192142</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>-16.577608914223838</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>-18.882681494044366</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>-21.304723880801927</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="5"/>
-        <v>-23.858438386826752</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
-        <v>-26.569276312831274</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>-29.486168721268925</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ref="R15" si="6">LOG(R8)</f>
-        <v>-32.732119848970804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:Q16" si="7">LOG(B9)</f>
-        <v>-0.1262161954088053</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="7"/>
-        <v>-0.65893519543652423</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="7"/>
-        <v>-1.5207129147284679</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="7"/>
-        <v>-2.5885451164535356</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="7"/>
-        <v>-3.8135007381583055</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="7"/>
-        <v>-5.1701284791303426</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
-        <v>-6.6437260270394054</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="7"/>
-        <v>-8.2256630497373049</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>-9.9113495099735669</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>-11.699341015104592</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="7"/>
-        <v>-13.591081957773978</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="7"/>
-        <v>-15.591162375232207</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>-17.708212599627451</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
-        <v>-19.956934943289976</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="7"/>
-        <v>-22.362780706932195</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>-24.974680953007535</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ref="R16" si="8">LOG(R9)</f>
-        <v>-27.915639918347104</v>
-      </c>
-    </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
       <c r="B17">
-        <f t="shared" ref="B17:Q17" si="9">LOG(B10)</f>
-        <v>-0.27642579730327427</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="9"/>
-        <v>-0.46396459528939565</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="9"/>
-        <v>-0.98056211253974168</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="9"/>
-        <v>-1.7032141122232123</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="9"/>
-        <v>-2.5829895318863842</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="9"/>
-        <v>-3.5944370708168241</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="9"/>
-        <v>-4.7228544166842878</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="9"/>
-        <v>-5.9596112373405914</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="9"/>
-        <v>-7.3001174955352575</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="9"/>
-        <v>-8.7429287986246838</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="9"/>
-        <v>-10.289489539252472</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="9"/>
-        <v>-11.944389754669103</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="9"/>
-        <v>-13.716259777022753</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="9"/>
-        <v>-15.619801918643676</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="9"/>
-        <v>-17.680467480244296</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>-19.947187524278043</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ref="R17" si="10">LOG(R10)</f>
-        <v>-22.542966287576011</v>
+        <f>B8</f>
+        <v>0.86532344729557997</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(B17,", ",C8)</f>
+        <v>0,86532344729558, 0,12573822039411</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:D21" si="5">CONCATENATE(C17,", ",D8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E21" si="6">CONCATENATE(D17,", ",E8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:F21" si="7">CONCATENATE(E17,", ",F8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ref="G17:G21" si="8">CONCATENATE(F17,", ",G8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:H21" si="9">CONCATENATE(G17,", ",H8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ref="I17:I21" si="10">CONCATENATE(H17,", ",I8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17:J21" si="11">CONCATENATE(I17,", ",J8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17:K21" si="12">CONCATENATE(J17,", ",K8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:L21" si="13">CONCATENATE(K17,", ",L8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ref="M17:M21" si="14">CONCATENATE(L17,", ",M8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ref="N17:N21" si="15">CONCATENATE(M17,", ",N8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ref="O17:O21" si="16">CONCATENATE(N17,", ",O8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:P21" si="17">CONCATENATE(O17,", ",P8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17:Q21" si="18">CONCATENATE(P17,", ",Q8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17:R21" si="19">CONCATENATE(Q17,", ",R8)</f>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30, 1,85302018885184E-33</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
       <c r="B18">
-        <f t="shared" ref="B18:Q18" si="11">LOG(B11)</f>
-        <v>-0.57939476247111577</v>
-      </c>
-      <c r="C18">
+        <f t="shared" ref="B18:B21" si="20">B9</f>
+        <v>0.74779714819265464</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C21" si="21">CONCATENATE(B18,", ",C9)</f>
+        <v>0,747797148192655, 0,219313216577886</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="7"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="8"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="9"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="10"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="11"/>
-        <v>-0.43597262016880262</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="11"/>
-        <v>-0.62160919713071427</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="11"/>
-        <v>-1.0133002565257505</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="11"/>
-        <v>-1.5621147359004877</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="11"/>
-        <v>-2.2426013345424933</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="11"/>
-        <v>-3.0400577401215236</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="11"/>
-        <v>-3.9458536204893924</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="11"/>
-        <v>-4.9553989383956232</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="11"/>
-        <v>-6.0672493011966155</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="11"/>
-        <v>-7.2828491015359713</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="11"/>
-        <v>-8.6067883766641646</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="11"/>
-        <v>-10.047697458729381</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="11"/>
-        <v>-11.620278660061865</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="11"/>
-        <v>-13.349983281374056</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="11"/>
-        <v>-15.285742385119367</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ref="R18" si="12">LOG(R11)</f>
-        <v>-17.550560208128903</v>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="12"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="13"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="14"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="15"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="16"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="17"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="18"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="19"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25, 1,21439531096594E-28</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
       <c r="B19">
-        <f t="shared" ref="B19:Q19" si="13">LOG(B12)</f>
-        <v>-4.8164799306236992</v>
-      </c>
-      <c r="C19">
+        <f t="shared" si="20"/>
+        <v>0.52914439805242031</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="21"/>
+        <v>0,52914439805242, 0,343585956695848</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="5"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="6"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="8"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="9"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="10"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="11"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="12"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="13"/>
-        <v>-3.6123599479677737</v>
-      </c>
-      <c r="D19">
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="14"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="15"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="16"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="17"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="18"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="19"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20, 2,86440031242744E-23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="20"/>
+        <v>0.26339361174458853</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="21"/>
+        <v>0,263393611744589, 0,366460677209862</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="5"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="6"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="9"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="10"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="11"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="12"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="13"/>
-        <v>-2.7372986845760741</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="13"/>
-        <v>-2.0682919036174989</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="13"/>
-        <v>-1.5564085426386243</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="13"/>
-        <v>-1.1761973009270184</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="13"/>
-        <v>-0.91295586615243696</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="13"/>
-        <v>-0.75805390616669377</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="13"/>
-        <v>-0.70690138371931244</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="13"/>
-        <v>-0.75805390616669377</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="13"/>
-        <v>-0.91295586615243696</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="13"/>
-        <v>-1.1761973009270184</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="13"/>
-        <v>-1.5564085426386243</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="13"/>
-        <v>-2.0682919036174994</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="13"/>
-        <v>-2.7372986845760741</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="13"/>
-        <v>-3.6123599479677737</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ref="R19" si="14">LOG(R12)</f>
-        <v>-4.8164799306236992</v>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="14"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="15"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="16"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="17"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="18"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="19"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16, 2,81474976710655E-18</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>SUM(B15:B18) - 4*B19</f>
-        <v>18.221061439076006</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:Q21" si="15">SUM(C15:C18) - 4*C19</f>
-        <v>11.990034690350752</v>
-      </c>
-      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>1.5258789062500007E-5</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="21"/>
+        <v>0,0000152587890625, 0,000244140625</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="8"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="10"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="11"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="12"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="13"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="14"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="15"/>
-        <v>5.7590079416255016</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="15"/>
-        <v>-0.47201880709974731</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="15"/>
-        <v>-6.7030455558250006</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="15"/>
-        <v>-12.934072304550252</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="15"/>
-        <v>-19.165099053275505</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="15"/>
-        <v>-25.396125802000753</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="15"/>
-        <v>-31.627152550726009</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="15"/>
-        <v>-37.858179299451258</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="15"/>
-        <v>-44.089206048176514</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="15"/>
-        <v>-50.320232796901763</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="15"/>
-        <v>-56.551259545627012</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="15"/>
-        <v>-62.782286294352275</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="15"/>
-        <v>-69.013313043077517</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="15"/>
-        <v>-75.244339791802759</v>
-      </c>
-      <c r="R21">
-        <f t="shared" ref="R21" si="16">SUM(R15:R18) - 4*R19</f>
-        <v>-81.475366540528015</v>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="16"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="17"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="18"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="19"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625, 0,0000152587890625</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
       <c r="B24">
-        <f>B15</f>
+        <f>LOG(B8)</f>
         <v>-6.282152823559474E-2</v>
       </c>
-      <c r="C24" t="str">
-        <f>CONCATENATE(B24,", ",C15)</f>
-        <v>-0,0628215282355947, -0,900532690625621</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" ref="D24:R24" si="17">CONCATENATE(C24,", ",D15)</f>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="17"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</v>
+      <c r="C24">
+        <f>LOG(C8)</f>
+        <v>-0.90053269062562058</v>
+      </c>
+      <c r="D24">
+        <f>LOG(D8)</f>
+        <v>-2.0673025722798708</v>
+      </c>
+      <c r="E24">
+        <f>LOG(E8)</f>
+        <v>-3.4401269363672458</v>
+      </c>
+      <c r="F24">
+        <f>LOG(F8)</f>
+        <v>-4.9700747204343214</v>
+      </c>
+      <c r="G24">
+        <f>LOG(G8)</f>
+        <v>-6.6316946237686665</v>
+      </c>
+      <c r="H24">
+        <f>LOG(H8)</f>
+        <v>-8.4102843340400355</v>
+      </c>
+      <c r="I24">
+        <f>LOG(I8)</f>
+        <v>-10.297213519100243</v>
+      </c>
+      <c r="J24">
+        <f>LOG(J8)</f>
+        <v>-12.28789214169881</v>
+      </c>
+      <c r="K24">
+        <f>LOG(K8)</f>
+        <v>-14.380875809192142</v>
+      </c>
+      <c r="L24">
+        <f>LOG(L8)</f>
+        <v>-16.577608914223838</v>
+      </c>
+      <c r="M24">
+        <f>LOG(M8)</f>
+        <v>-18.882681494044366</v>
+      </c>
+      <c r="N24">
+        <f>LOG(N8)</f>
+        <v>-21.304723880801927</v>
+      </c>
+      <c r="O24">
+        <f>LOG(O8)</f>
+        <v>-23.858438386826752</v>
+      </c>
+      <c r="P24">
+        <f>LOG(P8)</f>
+        <v>-26.569276312831274</v>
+      </c>
+      <c r="Q24">
+        <f>LOG(Q8)</f>
+        <v>-29.486168721268925</v>
+      </c>
+      <c r="R24">
+        <f>LOG(R8)</f>
+        <v>-32.732119848970804</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
       <c r="B25">
-        <f t="shared" ref="B25:B28" si="18">B16</f>
+        <f>LOG(B9)</f>
         <v>-0.1262161954088053</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:R28" si="19">CONCATENATE(B25,", ",C16)</f>
-        <v>-0,126216195408805, -0,658935195436524</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</v>
+      <c r="C25">
+        <f>LOG(C9)</f>
+        <v>-0.65893519543652423</v>
+      </c>
+      <c r="D25">
+        <f>LOG(D9)</f>
+        <v>-1.5207129147284679</v>
+      </c>
+      <c r="E25">
+        <f>LOG(E9)</f>
+        <v>-2.5885451164535356</v>
+      </c>
+      <c r="F25">
+        <f>LOG(F9)</f>
+        <v>-3.8135007381583055</v>
+      </c>
+      <c r="G25">
+        <f>LOG(G9)</f>
+        <v>-5.1701284791303426</v>
+      </c>
+      <c r="H25">
+        <f>LOG(H9)</f>
+        <v>-6.6437260270394054</v>
+      </c>
+      <c r="I25">
+        <f>LOG(I9)</f>
+        <v>-8.2256630497373049</v>
+      </c>
+      <c r="J25">
+        <f>LOG(J9)</f>
+        <v>-9.9113495099735669</v>
+      </c>
+      <c r="K25">
+        <f>LOG(K9)</f>
+        <v>-11.699341015104592</v>
+      </c>
+      <c r="L25">
+        <f>LOG(L9)</f>
+        <v>-13.591081957773978</v>
+      </c>
+      <c r="M25">
+        <f>LOG(M9)</f>
+        <v>-15.591162375232207</v>
+      </c>
+      <c r="N25">
+        <f>LOG(N9)</f>
+        <v>-17.708212599627451</v>
+      </c>
+      <c r="O25">
+        <f>LOG(O9)</f>
+        <v>-19.956934943289976</v>
+      </c>
+      <c r="P25">
+        <f>LOG(P9)</f>
+        <v>-22.362780706932195</v>
+      </c>
+      <c r="Q25">
+        <f>LOG(Q9)</f>
+        <v>-24.974680953007535</v>
+      </c>
+      <c r="R25">
+        <f>LOG(R9)</f>
+        <v>-27.915639918347104</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
       <c r="B26">
-        <f t="shared" si="18"/>
+        <f>LOG(B10)</f>
         <v>-0.27642579730327427</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</v>
+      <c r="C26">
+        <f>LOG(C10)</f>
+        <v>-0.46396459528939565</v>
+      </c>
+      <c r="D26">
+        <f>LOG(D10)</f>
+        <v>-0.98056211253974168</v>
+      </c>
+      <c r="E26">
+        <f>LOG(E10)</f>
+        <v>-1.7032141122232123</v>
+      </c>
+      <c r="F26">
+        <f>LOG(F10)</f>
+        <v>-2.5829895318863842</v>
+      </c>
+      <c r="G26">
+        <f>LOG(G10)</f>
+        <v>-3.5944370708168241</v>
+      </c>
+      <c r="H26">
+        <f>LOG(H10)</f>
+        <v>-4.7228544166842878</v>
+      </c>
+      <c r="I26">
+        <f>LOG(I10)</f>
+        <v>-5.9596112373405914</v>
+      </c>
+      <c r="J26">
+        <f>LOG(J10)</f>
+        <v>-7.3001174955352575</v>
+      </c>
+      <c r="K26">
+        <f>LOG(K10)</f>
+        <v>-8.7429287986246838</v>
+      </c>
+      <c r="L26">
+        <f>LOG(L10)</f>
+        <v>-10.289489539252472</v>
+      </c>
+      <c r="M26">
+        <f>LOG(M10)</f>
+        <v>-11.944389754669103</v>
+      </c>
+      <c r="N26">
+        <f>LOG(N10)</f>
+        <v>-13.716259777022753</v>
+      </c>
+      <c r="O26">
+        <f>LOG(O10)</f>
+        <v>-15.619801918643676</v>
+      </c>
+      <c r="P26">
+        <f>LOG(P10)</f>
+        <v>-17.680467480244296</v>
+      </c>
+      <c r="Q26">
+        <f>LOG(Q10)</f>
+        <v>-19.947187524278043</v>
+      </c>
+      <c r="R26">
+        <f>LOG(R10)</f>
+        <v>-22.542966287576011</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
       <c r="B27">
-        <f t="shared" si="18"/>
+        <f>LOG(B11)</f>
         <v>-0.57939476247111577</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="19"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</v>
+      <c r="C27">
+        <f>LOG(C11)</f>
+        <v>-0.43597262016880262</v>
+      </c>
+      <c r="D27">
+        <f>LOG(D11)</f>
+        <v>-0.62160919713071427</v>
+      </c>
+      <c r="E27">
+        <f>LOG(E11)</f>
+        <v>-1.0133002565257505</v>
+      </c>
+      <c r="F27">
+        <f>LOG(F11)</f>
+        <v>-1.5621147359004877</v>
+      </c>
+      <c r="G27">
+        <f>LOG(G11)</f>
+        <v>-2.2426013345424933</v>
+      </c>
+      <c r="H27">
+        <f>LOG(H11)</f>
+        <v>-3.0400577401215236</v>
+      </c>
+      <c r="I27">
+        <f>LOG(I11)</f>
+        <v>-3.9458536204893924</v>
+      </c>
+      <c r="J27">
+        <f>LOG(J11)</f>
+        <v>-4.9553989383956232</v>
+      </c>
+      <c r="K27">
+        <f>LOG(K11)</f>
+        <v>-6.0672493011966155</v>
+      </c>
+      <c r="L27">
+        <f>LOG(L11)</f>
+        <v>-7.2828491015359713</v>
+      </c>
+      <c r="M27">
+        <f>LOG(M11)</f>
+        <v>-8.6067883766641646</v>
+      </c>
+      <c r="N27">
+        <f>LOG(N11)</f>
+        <v>-10.047697458729381</v>
+      </c>
+      <c r="O27">
+        <f>LOG(O11)</f>
+        <v>-11.620278660061865</v>
+      </c>
+      <c r="P27">
+        <f>LOG(P11)</f>
+        <v>-13.349983281374056</v>
+      </c>
+      <c r="Q27">
+        <f>LOG(Q11)</f>
+        <v>-15.285742385119367</v>
+      </c>
+      <c r="R27">
+        <f>LOG(R11)</f>
+        <v>-17.550560208128903</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
       <c r="B28">
-        <f t="shared" si="18"/>
+        <f>LOG(B12)</f>
         <v>-4.8164799306236992</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="19"/>
+      <c r="C28">
+        <f>LOG(C12)</f>
+        <v>-3.6123599479677737</v>
+      </c>
+      <c r="D28">
+        <f>LOG(D12)</f>
+        <v>-2.7372986845760741</v>
+      </c>
+      <c r="E28">
+        <f>LOG(E12)</f>
+        <v>-2.0682919036174989</v>
+      </c>
+      <c r="F28">
+        <f>LOG(F12)</f>
+        <v>-1.5564085426386243</v>
+      </c>
+      <c r="G28">
+        <f>LOG(G12)</f>
+        <v>-1.1761973009270184</v>
+      </c>
+      <c r="H28">
+        <f>LOG(H12)</f>
+        <v>-0.91295586615243696</v>
+      </c>
+      <c r="I28">
+        <f>LOG(I12)</f>
+        <v>-0.75805390616669377</v>
+      </c>
+      <c r="J28">
+        <f>LOG(J12)</f>
+        <v>-0.70690138371931244</v>
+      </c>
+      <c r="K28">
+        <f>LOG(K12)</f>
+        <v>-0.75805390616669377</v>
+      </c>
+      <c r="L28">
+        <f>LOG(L12)</f>
+        <v>-0.91295586615243696</v>
+      </c>
+      <c r="M28">
+        <f>LOG(M12)</f>
+        <v>-1.1761973009270184</v>
+      </c>
+      <c r="N28">
+        <f>LOG(N12)</f>
+        <v>-1.5564085426386243</v>
+      </c>
+      <c r="O28">
+        <f>LOG(O12)</f>
+        <v>-2.0682919036174994</v>
+      </c>
+      <c r="P28">
+        <f>LOG(P12)</f>
+        <v>-2.7372986845760741</v>
+      </c>
+      <c r="Q28">
+        <f>LOG(Q12)</f>
+        <v>-3.6123599479677737</v>
+      </c>
+      <c r="R28">
+        <f>LOG(R12)</f>
+        <v>-4.8164799306236992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B24:B27) - 4*B28</f>
+        <v>18.221061439076006</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:Q30" si="22">SUM(C24:C27) - 4*C28</f>
+        <v>11.990034690350752</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="22"/>
+        <v>5.7590079416255016</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="22"/>
+        <v>-0.47201880709974731</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="22"/>
+        <v>-6.7030455558250006</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="22"/>
+        <v>-12.934072304550252</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="22"/>
+        <v>-19.165099053275505</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="22"/>
+        <v>-25.396125802000753</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="22"/>
+        <v>-31.627152550726009</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="22"/>
+        <v>-37.858179299451258</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="22"/>
+        <v>-44.089206048176514</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="22"/>
+        <v>-50.320232796901763</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="22"/>
+        <v>-56.551259545627012</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="22"/>
+        <v>-62.782286294352275</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="22"/>
+        <v>-69.013313043077517</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="22"/>
+        <v>-75.244339791802759</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30" si="23">SUM(R24:R27) - 4*R28</f>
+        <v>-81.475366540528015</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>B24</f>
+        <v>-6.282152823559474E-2</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE(B33,", ",C24)</f>
+        <v>-0,0628215282355947, -0,900532690625621</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:R33" si="24">CONCATENATE(C33,", ",D24)</f>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="24"/>
+        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ref="B34:B37" si="25">B25</f>
+        <v>-0.1262161954088053</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:R37" si="26">CONCATENATE(B34,", ",C25)</f>
+        <v>-0,126216195408805, -0,658935195436524</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="25"/>
+        <v>-0.27642579730327427</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="25"/>
+        <v>-0.57939476247111577</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="26"/>
+        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="25"/>
+        <v>-4.8164799306236992</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="19"/>
+      <c r="D37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="19"/>
+      <c r="E37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="19"/>
+      <c r="F37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="19"/>
+      <c r="G37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="19"/>
+      <c r="H37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="19"/>
+      <c r="I37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="19"/>
+      <c r="J37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="19"/>
+      <c r="K37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="19"/>
+      <c r="L37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="19"/>
+      <c r="M37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="19"/>
+      <c r="N37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862</v>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="19"/>
+      <c r="O37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="19"/>
+      <c r="P37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777</v>
       </c>
-      <c r="R28" t="str">
-        <f t="shared" si="19"/>
+      <c r="R37" t="str">
+        <f t="shared" si="26"/>
         <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777, -4,8164799306237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/code/matlab_testerino/stored probability.xlsx
+++ b/code/matlab_testerino/stored probability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tiic-2015\code\matlab_testerino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpanta\Documents\GitHub\tiic-2015\code\matlab_testerino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>P(x4)</t>
-  </si>
-  <si>
-    <t>P(x3)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Pe4=</t>
   </si>
@@ -50,19 +44,34 @@
     <t>Q(x1)</t>
   </si>
   <si>
-    <t>log P(x4)</t>
-  </si>
-  <si>
-    <t>log P(x3)</t>
-  </si>
-  <si>
     <t>log Q(x1)</t>
   </si>
   <si>
-    <t>P(x2)</t>
+    <t>P(x1)</t>
   </si>
   <si>
-    <t>P(x1)</t>
+    <t>Q(x4)</t>
+  </si>
+  <si>
+    <t>Q(x3)</t>
+  </si>
+  <si>
+    <t>Q(x2)</t>
+  </si>
+  <si>
+    <t>log Q(x4)</t>
+  </si>
+  <si>
+    <t>log Q(x3)</t>
+  </si>
+  <si>
+    <t>log P(x1)</t>
+  </si>
+  <si>
+    <t>log Q(x2)</t>
+  </si>
+  <si>
+    <t>Fixed point</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1363,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1674,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,13 +1698,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1">
         <v>0.5</v>
@@ -1703,7 +1712,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1.7999999999999999E-2</v>
@@ -1711,7 +1720,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3.9E-2</v>
@@ -1719,7 +1728,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.08</v>
@@ -1780,7 +1789,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f>_xlfn.BINOM.DIST(B$7,16,$B$1,FALSE)</f>
@@ -1853,7 +1862,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <f>_xlfn.BINOM.DIST(B$7,16,$B$2,FALSE)</f>
@@ -1926,7 +1935,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <f>_xlfn.BINOM.DIST(B$7,16,$B$3,FALSE)</f>
@@ -1999,7 +2008,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f>_xlfn.BINOM.DIST(B$7,16,$B$4,FALSE)</f>
@@ -2143,1139 +2152,1448 @@
         <v>1.5258789062500007E-5</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B8</f>
+        <v>0.86532344729557997</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:R14" si="5">CONCATENATE(B14,", ",C8)</f>
+        <v>0,86532344729558, 0,12573822039411</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30, 1,85302018885184E-33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B9</f>
+        <v>0.74779714819265464</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:R15" si="6">CONCATENATE(B15,", ",C9)</f>
+        <v>0,747797148192655, 0,219313216577886</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25, 1,21439531096594E-28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B10</f>
+        <v>0.52914439805242031</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:R16" si="7">CONCATENATE(B16,", ",C10)</f>
+        <v>0,52914439805242, 0,343585956695848</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="7"/>
+        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20, 2,86440031242744E-23</v>
+      </c>
+    </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>B8</f>
-        <v>0.86532344729557997</v>
+        <f>B11</f>
+        <v>0.26339361174458853</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(B17,", ",C8)</f>
-        <v>0,86532344729558, 0,12573822039411</v>
+        <f t="shared" ref="C17:R17" si="8">CONCATENATE(B17,", ",C11)</f>
+        <v>0,263393611744589, 0,366460677209862</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D21" si="5">CONCATENATE(C17,", ",D8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:E21" si="6">CONCATENATE(D17,", ",E8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F21" si="7">CONCATENATE(E17,", ",F8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17:G21" si="8">CONCATENATE(F17,", ",G8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H21" si="9">CONCATENATE(G17,", ",H8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" ref="I17:I21" si="10">CONCATENATE(H17,", ",I8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ref="J17:J21" si="11">CONCATENATE(I17,", ",J8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:K21" si="12">CONCATENATE(J17,", ",K8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L21" si="13">CONCATENATE(K17,", ",L8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ref="M17:M21" si="14">CONCATENATE(L17,", ",M8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" ref="N17:N21" si="15">CONCATENATE(M17,", ",N8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" ref="O17:O21" si="16">CONCATENATE(N17,", ",O8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" ref="P17:P21" si="17">CONCATENATE(O17,", ",P8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ref="Q17:Q21" si="18">CONCATENATE(P17,", ",Q8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" ref="R17:R21" si="19">CONCATENATE(Q17,", ",R8)</f>
-        <v>0,86532344729558, 0,12573822039411, 0,00856440956266646, 0,000362971949174562, 1,07133496602986E-05, 2,33509942141726E-07, 3,88790519206709E-09, 5,04413243889342E-11, 5,15356619009042E-13, 4,16029561258561E-15, 2,64478933998883E-17, 1,31014241225023E-19, 4,95765292223848E-22, 1,38535671195051E-24, 2,69602358531527E-27, 3,26460979049277E-30, 1,85302018885184E-33</v>
+        <f t="shared" si="8"/>
+        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16, 2,81474976710655E-18</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" ref="B18:B21" si="20">B9</f>
-        <v>0.74779714819265464</v>
+        <f>B12</f>
+        <v>1.5258789062500007E-5</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C21" si="21">CONCATENATE(B18,", ",C9)</f>
-        <v>0,747797148192655, 0,219313216577886</v>
+        <f t="shared" ref="C18:R18" si="9">CONCATENATE(B18,", ",C12)</f>
+        <v>0,0000152587890625, 0,000244140625</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="5"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="9"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07</v>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="12"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="13"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="14"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="15"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="16"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="17"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="18"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25</v>
+        <f t="shared" si="9"/>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="19"/>
-        <v>0,747797148192655, 0,219313216577886, 0,0301499839490984, 0,00257902103026911, 0,000153638218198313, 6,75882996554695E-06, 2,27129723893126E-07, 5,94753423054447E-09, 1,22645181434344E-10, 1,99829216186303E-12, 2,56400012621938E-14, 2,56352539929356E-16, 1,95788599742381E-18, 1,10424402173362E-20, 4,33729831056261E-23, 1,06003217366094E-25, 1,21439531096594E-28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" si="20"/>
-        <v>0.52914439805242031</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="21"/>
-        <v>0,52914439805242, 0,343585956695848</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="5"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="6"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="7"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="8"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583</v>
-      </c>
-      <c r="H19" t="str">
         <f t="shared" si="9"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="10"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="11"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="12"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="13"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="14"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="15"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="16"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="17"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="18"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="19"/>
-        <v>0,52914439805242, 0,343585956695848, 0,104577411377248, 0,0198055035074497, 0,00261222431797009, 0,000254426843040583, 1,89297807257042E-05, 1,09746015802358E-06, 5,01051659035218E-08, 1,80747043148327E-09, 5,13464545051961E-11, 1,13660678783614E-12, 1,92194175882802E-14, 2,39992727429097E-16, 2,08704839521365E-18, 1,12930818471498E-20, 2,86440031242744E-23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f t="shared" si="20"/>
-        <v>0.26339361174458853</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="21"/>
-        <v>0,263393611744589, 0,366460677209862</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="5"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="6"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="7"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="8"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="9"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="10"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="12"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="13"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="14"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="15"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="16"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="17"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="18"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16</v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="19"/>
-        <v>0,263393611744589, 0,366460677209862, 0,238996093832519, 0,0969839221349352, 0,027408499733786, 0,005720034727051, 0,00091188959416755, 0,000113278210455596, 1,10815640663083E-05, 8,56546014787117E-07, 5,2137583508781E-08, 2,47292886207657E-09, 8,95988718143687E-11, 2,39729422914699E-12, 4,46700788039809E-14, 5,17913957147607E-16, 2,81474976710655E-18</v>
+        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625, 0,0000152587890625</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
       <c r="B21">
-        <f t="shared" si="20"/>
-        <v>1.5258789062500007E-5</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="21"/>
-        <v>0,0000152587890625, 0,000244140625</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="5"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="7"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="9"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="12"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="13"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="14"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="15"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="16"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="17"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="18"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="19"/>
-        <v>0,0000152587890625, 0,000244140625, 0,0018310546875, 0,00854492187499999, 0,02777099609375, 0,066650390625, 0,1221923828125, 0,174560546875, 0,196380615234375, 0,174560546875, 0,1221923828125, 0,066650390625, 0,02777099609375, 0,00854492187499999, 0,0018310546875, 0,000244140625, 0,0000152587890625</v>
+        <v>-0.14465191443438499</v>
+      </c>
+      <c r="C21">
+        <v>-2.0735531491883701</v>
+      </c>
+      <c r="D21">
+        <v>-4.7601400856398799</v>
+      </c>
+      <c r="E21">
+        <v>-7.9211850016865002</v>
+      </c>
+      <c r="F21">
+        <v>-11.444019962338601</v>
+      </c>
+      <c r="G21">
+        <v>-15.270041181978501</v>
+      </c>
+      <c r="H21">
+        <v>-19.3653953354019</v>
+      </c>
+      <c r="I21">
+        <v>-23.710210348457</v>
+      </c>
+      <c r="J21">
+        <v>-28.293917269794399</v>
+      </c>
+      <c r="K21">
+        <v>-33.113190262444498</v>
+      </c>
+      <c r="L21">
+        <v>-38.171355163377001</v>
+      </c>
+      <c r="M21">
+        <v>-43.478980923941101</v>
+      </c>
+      <c r="N21">
+        <v>-49.055939618288797</v>
+      </c>
+      <c r="O21">
+        <v>-54.9360845716242</v>
+      </c>
+      <c r="P21">
+        <v>-61.178019569565102</v>
+      </c>
+      <c r="Q21">
+        <v>-67.894412547101098</v>
+      </c>
+      <c r="R21">
+        <v>-75.368491226334697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>-0.290623530042739</v>
+      </c>
+      <c r="C22">
+        <v>-1.5172543582612601</v>
+      </c>
+      <c r="D22">
+        <v>-3.5015708881772998</v>
+      </c>
+      <c r="E22">
+        <v>-5.9603453976884504</v>
+      </c>
+      <c r="F22">
+        <v>-8.7809099518050999</v>
+      </c>
+      <c r="G22">
+        <v>-11.904660764909501</v>
+      </c>
+      <c r="H22">
+        <v>-15.2977445117975</v>
+      </c>
+      <c r="I22">
+        <v>-18.9402891183171</v>
+      </c>
+      <c r="J22">
+        <v>-22.821725633119001</v>
+      </c>
+      <c r="K22">
+        <v>-26.938728219233699</v>
+      </c>
+      <c r="L22">
+        <v>-31.294622713630702</v>
+      </c>
+      <c r="M22">
+        <v>-35.899978067659298</v>
+      </c>
+      <c r="N22">
+        <v>-40.774666355471503</v>
+      </c>
+      <c r="O22">
+        <v>-45.952540902271501</v>
+      </c>
+      <c r="P22">
+        <v>-51.492205493676899</v>
+      </c>
+      <c r="Q22">
+        <v>-57.506328064677497</v>
+      </c>
+      <c r="R22">
+        <v>-64.278136337375599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>-0.63649392018951401</v>
+      </c>
+      <c r="C23">
+        <v>-1.0683179607903801</v>
+      </c>
+      <c r="D23">
+        <v>-2.2578277030887599</v>
+      </c>
+      <c r="E23">
+        <v>-3.92179542498226</v>
+      </c>
+      <c r="F23">
+        <v>-5.9475531914812603</v>
+      </c>
+      <c r="G23">
+        <v>-8.276497216968</v>
+      </c>
+      <c r="H23">
+        <v>-10.874774176238301</v>
+      </c>
+      <c r="I23">
+        <v>-13.7225119951402</v>
+      </c>
+      <c r="J23">
+        <v>-16.809141722324501</v>
+      </c>
+      <c r="K23">
+        <v>-20.1313375208215</v>
+      </c>
+      <c r="L23">
+        <v>-23.6924252276009</v>
+      </c>
+      <c r="M23">
+        <v>-27.502973794011901</v>
+      </c>
+      <c r="N23">
+        <v>-31.5828552942064</v>
+      </c>
+      <c r="O23">
+        <v>-35.9659230533887</v>
+      </c>
+      <c r="P23">
+        <v>-40.710780857176502</v>
+      </c>
+      <c r="Q23">
+        <v>-45.930096640559398</v>
+      </c>
+      <c r="R23">
+        <v>-51.907098125639898</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <f>LOG(B8)</f>
-        <v>-6.282152823559474E-2</v>
+        <v>-1.33410574302482</v>
       </c>
       <c r="C24">
-        <f>LOG(C8)</f>
-        <v>-0.90053269062562058</v>
+        <v>-1.00386405615424</v>
       </c>
       <c r="D24">
-        <f>LOG(D8)</f>
-        <v>-2.0673025722798708</v>
+        <v>-1.4313080709811801</v>
       </c>
       <c r="E24">
-        <f>LOG(E8)</f>
-        <v>-3.4401269363672458</v>
+        <v>-2.3332100654032399</v>
       </c>
       <c r="F24">
-        <f>LOG(F8)</f>
-        <v>-4.9700747204343214</v>
+        <v>-3.5969021044307898</v>
       </c>
       <c r="G24">
-        <f>LOG(G8)</f>
-        <v>-6.6316946237686665</v>
+        <v>-5.1637804024460996</v>
       </c>
       <c r="H24">
-        <f>LOG(H8)</f>
-        <v>-8.4102843340400355</v>
+        <v>-6.9999916342449904</v>
       </c>
       <c r="I24">
-        <f>LOG(I8)</f>
-        <v>-10.297213519100243</v>
+        <v>-9.0856637256754595</v>
       </c>
       <c r="J24">
-        <f>LOG(J8)</f>
-        <v>-12.28789214169881</v>
+        <v>-11.4102277253883</v>
       </c>
       <c r="K24">
-        <f>LOG(K8)</f>
-        <v>-14.380875809192142</v>
+        <v>-13.9703577964139</v>
       </c>
       <c r="L24">
-        <f>LOG(L8)</f>
-        <v>-16.577608914223838</v>
+        <v>-16.769379775721799</v>
       </c>
       <c r="M24">
-        <f>LOG(M8)</f>
-        <v>-18.882681494044366</v>
+        <v>-19.817862614661301</v>
       </c>
       <c r="N24">
-        <f>LOG(N8)</f>
-        <v>-21.304723880801927</v>
+        <v>-23.135678387384399</v>
       </c>
       <c r="O24">
-        <f>LOG(O8)</f>
-        <v>-23.858438386826752</v>
+        <v>-26.7566804190953</v>
       </c>
       <c r="P24">
-        <f>LOG(P8)</f>
-        <v>-26.569276312831274</v>
+        <v>-30.739472495411601</v>
       </c>
       <c r="Q24">
-        <f>LOG(Q8)</f>
-        <v>-29.486168721268925</v>
+        <v>-35.196722551323099</v>
       </c>
       <c r="R24">
-        <f>LOG(R8)</f>
-        <v>-32.732119848970804</v>
+        <v>-40.411658308932097</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <f>LOG(B9)</f>
-        <v>-0.1262161954088053</v>
+        <v>-11.0903548889591</v>
       </c>
       <c r="C25">
-        <f>LOG(C9)</f>
-        <v>-0.65893519543652423</v>
+        <v>-8.3177661667193501</v>
       </c>
       <c r="D25">
-        <f>LOG(D9)</f>
-        <v>-1.5207129147284679</v>
+        <v>-6.3028631461770797</v>
       </c>
       <c r="E25">
-        <f>LOG(E9)</f>
-        <v>-2.5885451164535356</v>
+        <v>-4.7624181052299299</v>
       </c>
       <c r="F25">
-        <f>LOG(F9)</f>
-        <v>-3.8135007381583055</v>
+        <v>-3.58376310888828</v>
       </c>
       <c r="G25">
-        <f>LOG(G9)</f>
-        <v>-5.1701284791303426</v>
+        <v>-2.7082943715343801</v>
       </c>
       <c r="H25">
-        <f>LOG(H9)</f>
-        <v>-6.6437260270394054</v>
+        <v>-2.1021585679640702</v>
       </c>
       <c r="I25">
-        <f>LOG(I9)</f>
-        <v>-8.2256630497373049</v>
+        <v>-1.74548362402534</v>
       </c>
       <c r="J25">
-        <f>LOG(J9)</f>
-        <v>-9.9113495099735669</v>
+        <v>-1.6277005883689499</v>
       </c>
       <c r="K25">
-        <f>LOG(K9)</f>
-        <v>-11.699341015104592</v>
+        <v>-1.74548362402534</v>
       </c>
       <c r="L25">
-        <f>LOG(L9)</f>
-        <v>-13.591081957773978</v>
+        <v>-2.1021585679640702</v>
       </c>
       <c r="M25">
-        <f>LOG(M9)</f>
-        <v>-15.591162375232207</v>
+        <v>-2.7082943715343801</v>
       </c>
       <c r="N25">
-        <f>LOG(N9)</f>
-        <v>-17.708212599627451</v>
+        <v>-3.58376310888828</v>
       </c>
       <c r="O25">
-        <f>LOG(O9)</f>
-        <v>-19.956934943289976</v>
+        <v>-4.7624181052299299</v>
       </c>
       <c r="P25">
-        <f>LOG(P9)</f>
-        <v>-22.362780706932195</v>
+        <v>-6.3028631461770797</v>
       </c>
       <c r="Q25">
-        <f>LOG(Q9)</f>
-        <v>-24.974680953007535</v>
+        <v>-8.3177661667193501</v>
       </c>
       <c r="R25">
-        <f>LOG(R9)</f>
-        <v>-27.915639918347104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <f>LOG(B10)</f>
-        <v>-0.27642579730327427</v>
-      </c>
-      <c r="C26">
-        <f>LOG(C10)</f>
-        <v>-0.46396459528939565</v>
-      </c>
-      <c r="D26">
-        <f>LOG(D10)</f>
-        <v>-0.98056211253974168</v>
-      </c>
-      <c r="E26">
-        <f>LOG(E10)</f>
-        <v>-1.7032141122232123</v>
-      </c>
-      <c r="F26">
-        <f>LOG(F10)</f>
-        <v>-2.5829895318863842</v>
-      </c>
-      <c r="G26">
-        <f>LOG(G10)</f>
-        <v>-3.5944370708168241</v>
-      </c>
-      <c r="H26">
-        <f>LOG(H10)</f>
-        <v>-4.7228544166842878</v>
-      </c>
-      <c r="I26">
-        <f>LOG(I10)</f>
-        <v>-5.9596112373405914</v>
-      </c>
-      <c r="J26">
-        <f>LOG(J10)</f>
-        <v>-7.3001174955352575</v>
-      </c>
-      <c r="K26">
-        <f>LOG(K10)</f>
-        <v>-8.7429287986246838</v>
-      </c>
-      <c r="L26">
-        <f>LOG(L10)</f>
-        <v>-10.289489539252472</v>
-      </c>
-      <c r="M26">
-        <f>LOG(M10)</f>
-        <v>-11.944389754669103</v>
-      </c>
-      <c r="N26">
-        <f>LOG(N10)</f>
-        <v>-13.716259777022753</v>
-      </c>
-      <c r="O26">
-        <f>LOG(O10)</f>
-        <v>-15.619801918643676</v>
-      </c>
-      <c r="P26">
-        <f>LOG(P10)</f>
-        <v>-17.680467480244296</v>
-      </c>
-      <c r="Q26">
-        <f>LOG(Q10)</f>
-        <v>-19.947187524278043</v>
-      </c>
-      <c r="R26">
-        <f>LOG(R10)</f>
-        <v>-22.542966287576011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <f>LOG(B11)</f>
-        <v>-0.57939476247111577</v>
-      </c>
-      <c r="C27">
-        <f>LOG(C11)</f>
-        <v>-0.43597262016880262</v>
-      </c>
-      <c r="D27">
-        <f>LOG(D11)</f>
-        <v>-0.62160919713071427</v>
-      </c>
-      <c r="E27">
-        <f>LOG(E11)</f>
-        <v>-1.0133002565257505</v>
-      </c>
-      <c r="F27">
-        <f>LOG(F11)</f>
-        <v>-1.5621147359004877</v>
-      </c>
-      <c r="G27">
-        <f>LOG(G11)</f>
-        <v>-2.2426013345424933</v>
-      </c>
-      <c r="H27">
-        <f>LOG(H11)</f>
-        <v>-3.0400577401215236</v>
-      </c>
-      <c r="I27">
-        <f>LOG(I11)</f>
-        <v>-3.9458536204893924</v>
-      </c>
-      <c r="J27">
-        <f>LOG(J11)</f>
-        <v>-4.9553989383956232</v>
-      </c>
-      <c r="K27">
-        <f>LOG(K11)</f>
-        <v>-6.0672493011966155</v>
-      </c>
-      <c r="L27">
-        <f>LOG(L11)</f>
-        <v>-7.2828491015359713</v>
-      </c>
-      <c r="M27">
-        <f>LOG(M11)</f>
-        <v>-8.6067883766641646</v>
-      </c>
-      <c r="N27">
-        <f>LOG(N11)</f>
-        <v>-10.047697458729381</v>
-      </c>
-      <c r="O27">
-        <f>LOG(O11)</f>
-        <v>-11.620278660061865</v>
-      </c>
-      <c r="P27">
-        <f>LOG(P11)</f>
-        <v>-13.349983281374056</v>
-      </c>
-      <c r="Q27">
-        <f>LOG(Q11)</f>
-        <v>-15.285742385119367</v>
-      </c>
-      <c r="R27">
-        <f>LOG(R11)</f>
-        <v>-17.550560208128903</v>
+        <v>-11.0903548889591</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <f>LOG(B12)</f>
-        <v>-4.8164799306236992</v>
-      </c>
-      <c r="C28">
-        <f>LOG(C12)</f>
-        <v>-3.6123599479677737</v>
-      </c>
-      <c r="D28">
-        <f>LOG(D12)</f>
-        <v>-2.7372986845760741</v>
-      </c>
-      <c r="E28">
-        <f>LOG(E12)</f>
-        <v>-2.0682919036174989</v>
-      </c>
-      <c r="F28">
-        <f>LOG(F12)</f>
-        <v>-1.5564085426386243</v>
-      </c>
-      <c r="G28">
-        <f>LOG(G12)</f>
-        <v>-1.1761973009270184</v>
-      </c>
-      <c r="H28">
-        <f>LOG(H12)</f>
-        <v>-0.91295586615243696</v>
-      </c>
-      <c r="I28">
-        <f>LOG(I12)</f>
-        <v>-0.75805390616669377</v>
-      </c>
-      <c r="J28">
-        <f>LOG(J12)</f>
-        <v>-0.70690138371931244</v>
-      </c>
-      <c r="K28">
-        <f>LOG(K12)</f>
-        <v>-0.75805390616669377</v>
-      </c>
-      <c r="L28">
-        <f>LOG(L12)</f>
-        <v>-0.91295586615243696</v>
-      </c>
-      <c r="M28">
-        <f>LOG(M12)</f>
-        <v>-1.1761973009270184</v>
-      </c>
-      <c r="N28">
-        <f>LOG(N12)</f>
-        <v>-1.5564085426386243</v>
-      </c>
-      <c r="O28">
-        <f>LOG(O12)</f>
-        <v>-2.0682919036174994</v>
-      </c>
-      <c r="P28">
-        <f>LOG(P12)</f>
-        <v>-2.7372986845760741</v>
-      </c>
-      <c r="Q28">
-        <f>LOG(Q12)</f>
-        <v>-3.6123599479677737</v>
-      </c>
-      <c r="R28">
-        <f>LOG(R12)</f>
-        <v>-4.8164799306236992</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(B21*2^20,0)</f>
+        <v>-151679</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:R29" si="10">ROUND(C21*2^20,0)</f>
+        <v>-2174278</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>-4991369</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="10"/>
+        <v>-8305964</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>-11999925</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="10"/>
+        <v>-16011799</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="10"/>
+        <v>-20306089</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>-24861958</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="10"/>
+        <v>-29668323</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
+        <v>-34721697</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>-40025567</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>-45591016</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>-51438881</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>-57604660</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>-64149803</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>-71192452</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>-79029591</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
       <c r="B30">
-        <f>SUM(B24:B27) - 4*B28</f>
-        <v>18.221061439076006</v>
+        <f t="shared" ref="B30:R30" si="11">ROUND(B22*2^20,0)</f>
+        <v>-304741</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:Q30" si="22">SUM(C24:C27) - 4*C28</f>
-        <v>11.990034690350752</v>
+        <f t="shared" si="11"/>
+        <v>-1590957</v>
       </c>
       <c r="D30">
-        <f t="shared" si="22"/>
-        <v>5.7590079416255016</v>
+        <f t="shared" si="11"/>
+        <v>-3671663</v>
       </c>
       <c r="E30">
-        <f t="shared" si="22"/>
-        <v>-0.47201880709974731</v>
+        <f t="shared" si="11"/>
+        <v>-6249875</v>
       </c>
       <c r="F30">
-        <f t="shared" si="22"/>
-        <v>-6.7030455558250006</v>
+        <f t="shared" si="11"/>
+        <v>-9207451</v>
       </c>
       <c r="G30">
-        <f t="shared" si="22"/>
-        <v>-12.934072304550252</v>
+        <f t="shared" si="11"/>
+        <v>-12482942</v>
       </c>
       <c r="H30">
-        <f t="shared" si="22"/>
-        <v>-19.165099053275505</v>
+        <f t="shared" si="11"/>
+        <v>-16040848</v>
       </c>
       <c r="I30">
-        <f t="shared" si="22"/>
-        <v>-25.396125802000753</v>
+        <f t="shared" si="11"/>
+        <v>-19860333</v>
       </c>
       <c r="J30">
-        <f t="shared" si="22"/>
-        <v>-31.627152550726009</v>
+        <f t="shared" si="11"/>
+        <v>-23930314</v>
       </c>
       <c r="K30">
-        <f t="shared" si="22"/>
-        <v>-37.858179299451258</v>
+        <f t="shared" si="11"/>
+        <v>-28247304</v>
       </c>
       <c r="L30">
-        <f t="shared" si="22"/>
-        <v>-44.089206048176514</v>
+        <f t="shared" si="11"/>
+        <v>-32814790</v>
       </c>
       <c r="M30">
-        <f t="shared" si="22"/>
-        <v>-50.320232796901763</v>
+        <f t="shared" si="11"/>
+        <v>-37643855</v>
       </c>
       <c r="N30">
-        <f t="shared" si="22"/>
-        <v>-56.551259545627012</v>
+        <f t="shared" si="11"/>
+        <v>-42755337</v>
       </c>
       <c r="O30">
-        <f t="shared" si="22"/>
-        <v>-62.782286294352275</v>
+        <f t="shared" si="11"/>
+        <v>-48184732</v>
       </c>
       <c r="P30">
-        <f t="shared" si="22"/>
-        <v>-69.013313043077517</v>
+        <f t="shared" si="11"/>
+        <v>-53993491</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="22"/>
-        <v>-75.244339791802759</v>
+        <f t="shared" si="11"/>
+        <v>-60299755</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30" si="23">SUM(R24:R27) - 4*R28</f>
-        <v>-81.475366540528015</v>
+        <f t="shared" si="11"/>
+        <v>-67400511</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:R31" si="12">ROUND(B23*2^20,0)</f>
+        <v>-667412</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="12"/>
+        <v>-1120213</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="12"/>
+        <v>-2367504</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="12"/>
+        <v>-4112301</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="12"/>
+        <v>-6236462</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="12"/>
+        <v>-8678536</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="12"/>
+        <v>-11403027</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="12"/>
+        <v>-14389097</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="12"/>
+        <v>-17625663</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>-21109237</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="12"/>
+        <v>-24843308</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="12"/>
+        <v>-28838958</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="12"/>
+        <v>-33117024</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="12"/>
+        <v>-37713004</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="12"/>
+        <v>-42688348</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>-48161197</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="12"/>
+        <v>-54428537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:R32" si="13">ROUND(B24*2^20,0)</f>
+        <v>-1398911</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="13"/>
+        <v>-1052628</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="13"/>
+        <v>-1500835</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="13"/>
+        <v>-2446548</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="13"/>
+        <v>-3771625</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="13"/>
+        <v>-5414616</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>-7340023</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>-9527009</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="13"/>
+        <v>-11964491</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="13"/>
+        <v>-14648982</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="13"/>
+        <v>-17583969</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="13"/>
+        <v>-20780535</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="13"/>
+        <v>-24259517</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="13"/>
+        <v>-28056413</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="13"/>
+        <v>-32232673</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="13"/>
+        <v>-36906439</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="13"/>
+        <v>-42374695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
       <c r="B33">
-        <f>B24</f>
-        <v>-6.282152823559474E-2</v>
-      </c>
-      <c r="C33" t="str">
-        <f>CONCATENATE(B33,", ",C24)</f>
-        <v>-0,0628215282355947, -0,900532690625621</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ref="D33:R33" si="24">CONCATENATE(C33,", ",D24)</f>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689</v>
-      </c>
-      <c r="R33" t="str">
-        <f t="shared" si="24"/>
-        <v>-0,0628215282355947, -0,900532690625621, -2,06730257227987, -3,44012693636725, -4,97007472043432, -6,63169462376867, -8,41028433404004, -10,2972135191002, -12,2878921416988, -14,3808758091921, -16,5776089142238, -18,8826814940444, -21,3047238808019, -23,8584383868268, -26,5692763128313, -29,4861687212689, -32,7321198489708</v>
+        <f t="shared" ref="B33:R33" si="14">ROUND(B25*2^20,0)</f>
+        <v>-11629080</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="14"/>
+        <v>-8721810</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="14"/>
+        <v>-6609031</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="14"/>
+        <v>-4993757</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>-3757848</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="14"/>
+        <v>-2839852</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="14"/>
+        <v>-2204273</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="14"/>
+        <v>-1830272</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
+        <v>-1706768</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="14"/>
+        <v>-1830272</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="14"/>
+        <v>-2204273</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="14"/>
+        <v>-2839852</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="14"/>
+        <v>-3757848</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="14"/>
+        <v>-4993757</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="14"/>
+        <v>-6609031</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="14"/>
+        <v>-8721810</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="14"/>
+        <v>-11629080</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f t="shared" ref="B34:B37" si="25">B25</f>
-        <v>-0.1262161954088053</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:R37" si="26">CONCATENATE(B34,", ",C25)</f>
-        <v>-0,126216195408805, -0,658935195436524</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,126216195408805, -0,658935195436524, -1,52071291472847, -2,58854511645354, -3,81350073815831, -5,17012847913034, -6,64372602703941, -8,2256630497373, -9,91134950997357, -11,6993410151046, -13,591081957774, -15,5911623752322, -17,7082125996275, -19,95693494329, -22,3627807069322, -24,9746809530075, -27,9156399183471</v>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>SUM(B29:B32) - 4*B33</f>
+        <v>43993577</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:Q35" si="15">SUM(C29:C32) - 4*C33</f>
+        <v>28949164</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="15"/>
+        <v>13904753</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>-1139660</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>-16184071</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="15"/>
+        <v>-31228485</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="15"/>
+        <v>-46272895</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="15"/>
+        <v>-61317309</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="15"/>
+        <v>-76361719</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="15"/>
+        <v>-91406132</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="15"/>
+        <v>-106450542</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>-121494956</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="15"/>
+        <v>-136539367</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="15"/>
+        <v>-151583781</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>-166628191</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="15"/>
+        <v>-181672603</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35" si="16">SUM(R29:R32) - 4*R33</f>
+        <v>-196717014</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" si="25"/>
-        <v>-0.27642579730327427</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278</v>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,276425797303274, -0,463964595289396, -0,980562112539742, -1,70321411222321, -2,58298953188638, -3,59443707081682, -4,72285441668429, -5,95961123734059, -7,30011749553526, -8,74292879862468, -10,2894895392525, -11,9443897546691, -13,7162597770228, -15,6198019186437, -17,6804674802443, -19,947187524278, -22,542966287576</v>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <f>B29</f>
+        <v>-151679</v>
+      </c>
+      <c r="C38" t="str">
+        <f>CONCATENATE(B38,", ",C29)</f>
+        <v>-151679, -2174278</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:Q38" si="17">CONCATENATE(C38,", ",D29)</f>
+        <v>-151679, -2174278, -4991369</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016, -51438881</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016, -51438881, -57604660</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016, -51438881, -57604660, -64149803</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="17"/>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016, -51438881, -57604660, -64149803, -71192452</v>
+      </c>
+      <c r="R38" t="str">
+        <f>CONCATENATE(Q38,", ",R29)</f>
+        <v>-151679, -2174278, -4991369, -8305964, -11999925, -16011799, -20306089, -24861958, -29668323, -34721697, -40025567, -45591016, -51438881, -57604660, -64149803, -71192452, -79029591</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f t="shared" si="25"/>
-        <v>-0.57939476247111577</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194</v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="26"/>
-        <v>-0,579394762471116, -0,435972620168803, -0,621609197130714, -1,01330025652575, -1,56211473590049, -2,24260133454249, -3,04005774012152, -3,94585362048939, -4,95539893839562, -6,06724930119662, -7,28284910153597, -8,60678837666416, -10,0476974587294, -11,6202786600619, -13,3499832813741, -15,2857423851194, -17,5505602081289</v>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:B42" si="18">B30</f>
+        <v>-304741</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:R42" si="19">CONCATENATE(B39,", ",C30)</f>
+        <v>-304741, -1590957</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855, -42755337</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855, -42755337, -48184732</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855, -42755337, -48184732, -53993491</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="19"/>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855, -42755337, -48184732, -53993491, -60299755</v>
+      </c>
+      <c r="R39" t="str">
+        <f>CONCATENATE(Q39,", ",R30)</f>
+        <v>-304741, -1590957, -3671663, -6249875, -9207451, -12482942, -16040848, -19860333, -23930314, -28247304, -32814790, -37643855, -42755337, -48184732, -53993491, -60299755, -67400511</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f t="shared" si="25"/>
-        <v>-4.8164799306236992</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777</v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="26"/>
-        <v>-4,8164799306237, -3,61235994796777, -2,73729868457607, -2,0682919036175, -1,55640854263862, -1,17619730092702, -0,912955866152437, -0,758053906166694, -0,706901383719312, -0,758053906166694, -0,912955866152437, -1,17619730092702, -1,55640854263862, -2,0682919036175, -2,73729868457607, -3,61235994796777, -4,8164799306237</v>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="18"/>
+        <v>-667412</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958, -33117024</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958, -33117024, -37713004</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958, -33117024, -37713004, -42688348</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958, -33117024, -37713004, -42688348, -48161197</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="19"/>
+        <v>-667412, -1120213, -2367504, -4112301, -6236462, -8678536, -11403027, -14389097, -17625663, -21109237, -24843308, -28838958, -33117024, -37713004, -42688348, -48161197, -54428537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="18"/>
+        <v>-1398911</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535, -24259517</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535, -24259517, -28056413</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535, -24259517, -28056413, -32232673</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535, -24259517, -28056413, -32232673, -36906439</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="19"/>
+        <v>-1398911, -1052628, -1500835, -2446548, -3771625, -5414616, -7340023, -9527009, -11964491, -14648982, -17583969, -20780535, -24259517, -28056413, -32232673, -36906439, -42374695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="18"/>
+        <v>-11629080</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852, -3757848</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852, -3757848, -4993757</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852, -3757848, -4993757, -6609031</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852, -3757848, -4993757, -6609031, -8721810</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="19"/>
+        <v>-11629080, -8721810, -6609031, -4993757, -3757848, -2839852, -2204273, -1830272, -1706768, -1830272, -2204273, -2839852, -3757848, -4993757, -6609031, -8721810, -11629080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-23.14958462017</v>
+      </c>
+      <c r="C44">
+        <f>A44*2^20</f>
+        <v>-24274098.842679378</v>
       </c>
     </row>
   </sheetData>
